--- a/output/Total_time_range_data/新疆维吾尔自治区/吐鲁番市_学习考察.xlsx
+++ b/output/Total_time_range_data/新疆维吾尔自治区/吐鲁番市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,414 +436,455 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>强信心起好步开新局复兴崛起重塑工业强市吐鲁番市党政代表团赴湖南学习考察启示二</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/202303/f20917760a9f428d9d260d15d2bf0fea.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['强信心 起好步 开新局 | 复兴崛起重塑工业强市——吐鲁番市党政代表团赴湖南学习考察启示（二）', '2月20日下午，吐鲁番市委书记马学良率领吐鲁番市党政代表团来到湖南之行的第二站衡阳市，实地考察学习衡阳市科技创新、产业转型升级等方面的先进经验和做法，进一步拓展衡吐两地多元合作的广度深度，助力吐鲁番产业升级和经济高质量发展。', '2月20日下午，吐鲁番市委书记马学良率领吐鲁番市党政代表团来到衡阳市。图为代表团在衡阳富泰宏精密工业有限公司学习考察。吐鲁番市融媒体中心记者杜虎摄', '衡阳市位于湖南省中南部，古称衡州，雅称“雁城”，是国家区域重点城市、省域副中心城市。作为全国26个老工业基地之一，衡阳市的兴衰复苏始终和工业紧密相连。近年来，衡阳市全面落实“三高四新”战略定位和使命任务，推进“三强一化”建设(强创新、强开放、强集聚，区域中心化)，不断加快区域中心化进程，努力建设国家区域重点城市和省域副中心城市。衡阳市坚定不移推进供给侧结构性改革，打好转型升级系列组合拳，正在从“速度领跑”向“质量领先”华丽转变。随着衡阳市产业转型升级，一批批国之重器在这里研发生产，安装在祖国最需要的地方；一批批高科技产品销往世界各地，为“中国制造”赢得了好名声。', '2月20日下午，吐鲁番市委书记马学良率领吐鲁番市党政代表团来到衡阳市。图为特变电工衡阳变压器有限公司生产的被誉为“国之重器”特高压变压器。吐鲁番市融媒体中心记者杜虎摄', '考察中，代表团参观了特变电工衡阳变压器有限公司、衡阳富泰宏精密工业有限公司，亲身感受了衡阳市在科技创新、产学研结合、产业转型升级、新业态发展等方面发生的蝶变，这座老工业城市正在复兴，崛起为新的工业强市。衡阳市生产总值由2012年的1603.79亿元，提升至2021年的3840.31亿元。10年间，接连跨越两个千亿关口，2022年更是突破4000亿元，实现了三连跳，工业企业实缴税金61.67亿元。', '考察中，代表团参观了特变电工衡阳变压器有限公司、衡阳富泰宏精密工业有限公司，亲身感受了衡阳市在科技创新、产学研结合、产业转型升级、新业态发展等方面发生的蝶变，这座老工业城市正在复兴，崛起为新的工业强市。衡阳市生产总值由', '随着一扇近40米高的大门缓缓打开，一台高30米、重800吨的“巨无霸”变压器展现在人们眼前。这是特变电工衡阳变压器有限公司生产的世界最高电压等级最大容量1500MVA/1000kV特高压变压器，被誉为“国之重器”。', '2月20日下午，吐鲁番市委书记马学良率领吐鲁番市党政代表团来到衡阳市。图为特变电工衡阳变压器有限公司生产车间，工人生产调试大型变压器。吐鲁番市融媒体中心记者杜虎摄', '在特变电工衡阳变压器有限公司生产车间，随处可见处于调试阶段的大型变压器。工人们正在赶制出口到巴基斯坦、马来西亚等国的37台套输变电产品，订单金额共计2.02亿元，另有141台套已经完成装配及出厂试验的产品正等待发运。特变电工衡阳变压器有限公司被誉为“创新的魔术师”，是诸多国内外首台套输变电产品的研制者。正是依靠超强的科技创新能力，该公司海外订单迎来爆发式增长，目前已排产到了2023年12月，实现了新市场、新业务的连续突破。', '在特变电工衡阳变压器有限公司生产车间，随处可见处于调试阶段的大型变压器。工人们正在赶制出口到巴基斯坦、马来西亚等国的', '作为中国输变电制造行业的领军企业，特变电工衡阳变压器有限公司特高压技术站在世界之巅。该公司是特变电工于2001年重组衡阳变压器厂成立的，先后研发重点新产品400余项，累计申请专利及软件著作权636项，参与及主持制定国家及行业标准146项，多次填补行业空白。该公司自主研制的产品远销全球70多个国家和地区，实现了由“中国制造”向“中国创造”，由“装备中国”向“装备世界”的新跨越。', '作为中国输变电制造行业的领军企业，特变电工衡阳变压器有限公司特高压技术站在世界之巅。该公司是特变电工于', '2月20日下午，吐鲁番市委书记马学良率领吐鲁番市党政代表团来到衡阳市。图为特变电工衡阳变压器有限公司生产车间，工人们正在赶制出口输变电产品。吐鲁番市融媒体中心记者杜虎摄', '科技创新彰显硬实力。创新是引领发展的第一动力，当今世界，以高新技术赋能传统产业，以新型技术驱动数字化转型已成为新产业培育、新价值创造的有力手段和有效途径。代表团一致认为，此次参观考察，不仅目睹了这些“国之重器”生产的过程，更让大家重新认识了创新研发给制造业带来的蓬勃力量和广阔市场前景。特别是特变电工衡阳变压器有限公司还是湘疆两地企业合作的典范，这让湘吐两地企业既有合作的基础，更有发展的空间与机遇，理应携手推动更大范围、更深层次的产业联动和协作，共同促进经济社会高质量发展。一直以来，吐鲁番都以“引进来”的方式，招引企业落户，希望通过学习特变电工衡阳变压器有限公司这个湘疆两地企业合作的成功典范，让更多吐鲁番优质企业能够走出去，积极开拓国内外市场，在竞争中做大做强做优。', '科技创新彰显硬实力。创新是引领发展的第一动力，当今世界，以高新技术赋能传统产业，以新型技术驱动数字化转型已成为新产业培育、新价值创造的有力手段和有效途径。代表团一致认为，此次参观考察，不仅目睹了这些', '衡阳富泰宏精密工业有限公司是世界500强企业——富士康科技集团IGSBG事业群下属企业，2011年4月，富士康正式入驻衡阳白沙洲蔡伦科技园。历经10余年发展，衡阳富泰宏精密工业有限公司已成为华南地区大屏幕电视制造基地和湖南最大的电子信息产业基地。该公司总投资10亿美元，主要生产数码产品、先进光电及LED等系列产品、平板电脑、大屏幕彩电、智能家电等高科技产品，员工最多时超过5万人，年产值500亿元，上缴利税20亿元。此外，富士康还与衡阳白沙洲工业园区、衡阳高新投资(集团)有限公司签署协议，共同出资建设衡阳“智造谷”项目，打造全国首座“智能制造+工业互联网世界‘灯塔工厂’应用示范基地”，并输出工业互联网学院与高端智能制造创新设备，实现从人才到技能的多维赋能。', '优势产业落户提升城市品位形象。富士康的入驻，让衡阳市的产业体系触及到了信息科技这一全新产业链，对于推动衡阳市产业转型升级、外贸出口、物流服务、提升城市形象等具有重要意义，而衡阳市50万产业工人也让双方实现了双向奔赴。更为深远的影响是，该项目落户衡阳会给其他世界五百强企业带来示范效应，从而带动更多的大型企业入驻衡阳。就业是最大的民生，吐鲁番市委二届四次全会提出，要增加农民工资性收入，招引劳动密集型产业无疑是有效解决途径之一。同时，招引富士康这样企业，能够形成新的产业链条，推动吐鲁番产业转型升级、提升城市品位形象。', '优势产业落户提升城市品位形象。富士康的入驻，让衡阳市的产业体系触及到了信息科技这一全新产业链，对于推动衡阳市产业转型升级、外贸出口、物流服务、提升城市形象等具有重要意义，而衡阳市']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>吐鲁番市高标准高质量推进党史学习教育综述之五</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/202106/d77d76a84bc845bcb34cccad705d4ca3.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['党史学习教育开展以来，我市党员干部自觉从党的百年历史中汲取砥砺奋进的精神力量，不断提高政治判断力、政治领悟力、政治执行力，以党史学习教育的实际成效推动经济社会高质量发展，在大力实施“1065”产业升级计划、奋力建设现代化吐鲁番中展现新担当新作为。', '吐鲁番经济开发区临空产业园“一带一路”吐鲁番旅游综合服务中心建设项目现场，工人正在紧锣密鼓地轧制梁筋、安装梁板，准备浇筑；', '一幕幕蓬勃发展的场景是我市学史力行的真实写照，是检验我市党史学习教育成果的生动实践。', '今年以来，我市深入贯彻党的十九届五中全会和第三次中央新疆工作座谈会精神，完整准确贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，统筹发展和安全，统筹疫情防控和经济社会发展，把产业项目建设作为实施“1065”产业升级计划的重要抓手，为全市经济高质量发展打造新引擎、培育新动能。', '3月上旬，我市2021年援疆项目集中开工仪式在长沙葡萄主题公园举行，葡萄产业示范园项目、传媒中心配套设施项目、网络与信息安全校企合作实训基地项目等14个援疆项目动工，吹响了我市以项目开工为抓手、加快推动高质量发展开年集结号。', '随后，全市2021年招商项目观摩暨招商引资工作会议召开，相关部门进园区、走企业、看项目，通过深入现场观摩考察，引导全市上下以更高站位、更大力度、更实举措推进产业项目建设，真正把明理、增信、崇德落到力行上，把学党史、悟思想的成效体现到办实事、开新局上。', '今年以来，我市千方百计引导优势资源向重大项目集中，建立完善“立项一批、开工一批、推进一批、建成一批”的重大项目推进机制，促进项目快落地、快推进、快见效，以重大项目高质量增长支撑高质量发展，为全市经济高质量发展稳住了“压舱石”。', '人间天堂，丝路重镇。一次相会，碰撞出无限机遇。6月10日，“吐鲁番‘酒’是想你”——2021第十八届浙商(投融资)大会吐鲁番葡萄酒产区专场推介会在浙江杭州举行，会上举行了三大“双百”工程购销签约仪式，吸引了12家浙企、机构与吐鲁番酒庄企业签订合作协议，共计1.36亿元。', '同时，由副市长、葡萄酒产业发展专班组长带领的市林草局、市商务局、吐鲁番经开区相关领导、专班工作人员及8家酒庄企业负责人，赴浙江省湖州市调研葡萄酒销售市场和吐鲁番葡萄酒馆选址工作。8家葡萄酒企业与韵达集团签订战略协议，解决酒庄企业葡萄酒销售难，运输、仓储成本高等问题。', '这次考察学习，既是一次学习取经之旅，也是一次深化合作之旅，更是一次加压奋进之旅。广大党员干部在学深悟透中，自觉运用党的创新理论优化工作方法，增强开拓创新精神，破解发展“卡脖子”难题。', '当前，我市正处于推动工业强基和转型升级期。市委、市政府围绕培育壮大特色优势产业，大力推进“1065”产业升级计划，重点发展石油化工、煤电煤化工、新型材料加工及装备制造、现代物流、文旅康养、农产品精深加工、葡萄酒、馕、纺织服装、热经济“十大产业”，在增强企业竞争力、提升智能制造能力、优化产业布局、完善产业生态等方面寻求更大突破。', '我市各级各部门坚持党的实事求是思想路线，开展专题行动破解发展难题，保持攻坚克难劲头不懈怠。', '实现依申请政务服务事项网上可办率98.3%、最多跑一次比例98.25%。持续优化营商环境，全面实现6个环节压缩到2.5个工作日内的目标，建成完善市工程建设项目审批平台，实现建设项目全流程审批时间压缩至120个工作日内的目标。同时，推行“非接触式”办税缴费服务，通过智慧微厅可办理214项“非接触式”税费业务……', '在吐鲁番，一项项务实的举措正将党史学习教育成果转化为干实事、办实事、干成事的不竭动力。', '望沙巴扎基础设施建设项目，扩大就业项目，农业种植、养殖百名专家基层行项目，梭梭接种肉苁蓉项目，村干部和村后备力量培训项目……这是鄯善县东巴扎乡党委今年梳理出的“我为群众办实事”实践活动项中的部分清单。', '始终同人民在一起、为人民利益而奋斗，是我们党立党兴党强党的根本出发点和落脚点。鄯善县东巴扎乡党委自觉强化公仆意识、树牢为民情怀，突出联系实际，推动农民致富增收，确保党史学习教育走深走实、落地见效，切实为群众办实事、办好事。', '推动改革发展成果更多更公平惠及全体人民，不断提高人民生活品质，是我市全体党员干部学史力行的根本动力。', '启动城市品质提升行动，8个老旧小区改造项目稳步推进。通过老旧小区改造、公共区域配建、路内新建等方式，全市新增停车位1842个，缓解停车难问题……', '围绕群众反映强烈的问题，全市各单位各部门将党史学习教育与实际工作相结合，确保件件落实、务求实效。', '心中有信仰，脚下有力量。在党史学习教育中，我市进一步增强了为民造福的自觉性坚定性，紧盯民生领域短板弱项，聚焦人民群众“急难愁盼”，大力提高民生供给质量和服务效益。', '突出民生重点聚力攻坚，是我市在深化党史学习教育中的又一特色。按照“切口小、发力准、效果好”的标准，全市扎实推进“我为群众办实事”实践活动，推进快递进乡村、进社区，城市社区聚集度高的区域基本实现全覆盖，全市168个建制村快递服务通达率达72%；各行政村农村生活垃圾治理覆盖率达100%，收运处置体系覆盖率达97.55%；新建4套地埋式一体化污水处理设备、45套单体式污水处理设备，村容村貌明显改观……一件件事关民生的实事好事，筑牢了保障底线，解决了基层群众的困难事烦心事，切实增强了人民群众的获得感、幸福感、安全感。', '天蓝水清岸绿，城乡巨变绘就幸福画卷。我市正以党史激发奋进之力，以昂扬姿态奋力谱写高质量发展新篇章，以优异成绩献礼党的百年华诞。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>296</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>吐鲁番有个发家不忘乡亲的带头大哥</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2016-06-23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106670/201606/2066df0e74c4482e86e3053c694fe573.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['新华网乌鲁木齐6月22日电(徐丽)盛夏时节，走进吐鲁番市恰特喀勒乡新红旗设施蔬菜种植农业专业合作社的院内，偌大的大棚王国里，少了蔬菜种植、采摘期的“繁华”，眼前所有的“功勋”大棚已进入休整、晾晒期。', '吐鲁番是全国著名的干热区，素有“火洲”之称，在这个天山东部的山间盆地里，有着丰富的光热资源和独特的自然气候，也是全疆“菜篮子”“果盘子”的理想之地。如今，遍布吐鲁番盆地的大棚蔬菜已成为继葡萄、哈密瓜后全市农业第三大支柱产业。', '作为吐鲁番大棚经济中弄潮儿中一员的张贤春，1967年出生于吐鲁番市恰特喀勒乡恰特喀勒村5组，从小就喝着坎儿井的水，和维吾尔族小伙伴一起长大，并说有一口流利的维吾尔族语。', '2010年，张贤春用在邮政储蓄银行申请的25万元个人商务贷款承包了恰特喀勒乡15座大棚种植哈密瓜，当年大棚哈密瓜喜获丰收，收入达45万元。', '张贤春所在的恰特喀勒乡位于吐鲁番市东南17公里处， 总面积为825平方公里，耕地面积58660亩，下辖7个行政村，45个村民小组，全乡总人口31000人，维吾尔人口占90%。全乡以种植葡萄、棉花、西甜瓜、蔬菜等喜光作物为主。', '在张贤春的带领下，2009年他和众乡亲一道成立了吐鲁番市恰特喀勒乡新红旗设施蔬菜种植农业专业合作社，合作社成立之初只有100来座大棚，在邮储银行吐鲁番分行40万贷款的帮助下，很快大棚数量扩大到了647座，种植户也由最初的13户扩展到了226户，其中96%的种植户都是维吾尔族。在发展设施农业的同时，有效拓宽了当地农民的经济收入种类，增加了果蔬、瓜果的销售，大大提高了当地农民的收入。所种植的果蔬远销上海、广州、杭州等地……', '“能带领乡亲们共同致富，要是没有邮储银行吐鲁番分行的支持，我们发展不了这么好，因为合作社社员们家庭条件有限，这几年每年贷款都是拿我个人房产抵押贷的，用做合作社发展。邮储银行服务到位的很，对我的支持力度非常大，还经常上门指导、了解发展情况，为我们解决了很多后顾之忧。”张贤春说。', '如今，提起这位非亲非故、带大家一道致富的张贤春理事长，恰特喀勒乡各族农民无人不晓，无不竖起大拇指。', '想农民所想，急农民所急，做农贸所需。合作是带领农民发展现代农业、增加收入的基础。几年来，为了改变当地农民的思想观念，提高合作社意识，张贤春还经常利用晚上的休息时间，找维吾尔族老乡普及合作社知识，介绍推广大棚种植技术、病虫灾害的防治、科学施肥方法，分析市场行情，利用这种轻松的交流方式，逐步引领大家走上现代农业之路，和农民建立了深厚的感情，越来越多的维吾尔族老乡愿意找张贤春同志讨论种植技术话题，提高种植技术，还愿意把生活中的困难告诉他，每年培训农民达1200多人次。', '为了培养农民种植户的市场意识，2011年，张贤春自筹资金，分批组织恰乡周边农民130多人到乌市北园春市场考察学习，让大家亲临市场，感受市场，极大提高了农民的种植信心和积极性。张贤春还经常组织各族社员到吐鲁番地区管理好、种植技术好的合作社去讨教，使社员的生产能力经营意识得到了很好的提升，社员种植大棚收入每座达2.5万元，远高于当地平均水平。', '每年温室大棚种植前，为了减轻社员经济压力，合作社都为社员垫资，2009年-2013年累计垫资达224.2万元。温室大棚种植生产期间，技术人员每天上棚、定点、跟踪服务，确保随叫随到、服务到棚，主动为成员及周边农民种植户提供帮助，为农民解决技术上及管理上的困难。为确保农产品有稳定的销售渠道，合作社还专门成立了果蔬销售中心，销售中心负责在有效的时间把农民的产品全部卖出去。在搞好设施农业种植的同时，他还组织闲散农民和剩余劳动力到合作社边务工边学习，仅此一项就带动周边农民获得劳务收入300多万元。', '眼下，吐鲁番精品农业正全方位推进。随着农业结构的不断优化，久负瓜果之乡盛名的吐鲁番加快蔬菜产业布局， 蔬菜已成为农民致富的“钱袋子”。据统计，吐鲁番市蔬菜种植面积9.76万亩，已成为全疆种植面积最大、品种最全、上市最早、品质最优的蔬菜种植基地；全市年产蔬菜33万吨，外销量达14万吨。吐鲁番蔬菜不仅品种丰富，而且一年四季不断供应国内外市场。目前已成功引进番茄等106个蔬菜新品种，并逐步形成4个万亩、16个千亩以上集中连片的设施农业生产基地。(完)']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>296</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>托克逊县夏乡布拉克佰什村工作组积极引导村民发展馕产业</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2016-09-04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106661/201609/fc1efd1e50c44a6abb51bf9c0ebddcc4.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['今年住村以来，托克逊县夏乡布拉克佰什村工作组认真落实吐鲁番市委发展馕产业的工作思路，积极引导村民走产业化、品牌化发展道路，鼓励当地村民打造具有地域特色的馕产业品牌。', '工作组在入户走访中了解到村民卡德尔·阿不都是该村的打馕能手，每天打的馕都供不应求，他希望通过自己的手艺不仅做大自己的事业，也可以带动贫困村民家庭一起致富。为了实现他的愿望，工作组和村委会通过多方协调，专门成立了伊再提古丽打馕合作社。', '合作社成立后，工作组发现他仍然以传统的方式进行销售，为了让他开阔眼界、打开思路、拓宽销售渠道，工作组带着他赴高昌区馕销售一条街和夏乡色日吉力尕村的馕合作社进行考察学习，当听到赫科麦提食品农民专业合作社的馕通过各种渠道已走出县城、走进乌鲁木齐市各大超市时,对今后自己的馕产业发展有了更新的认识，力争打造出自己的品牌。', '目前，卡德尔·阿不都的合作社已通过自己的努力和工作组的帮助，生产的馕在质量和产量上已初具规模。高兴的说：工作组帮助我成立合作社以来，我打的馕也有了名字，希望自己的品牌能远销疆内外，让更多的人吃到我们馕，也能更快地带领村民走致富。（图/文 周燕）']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>296</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>托克逊县近五年向困难职工发放救助金万元</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2015-06-04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106302/201506/b448d0e183f742d1b6b36f99f145c29a.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['近五年来，托克逊县慰问各类困难职工3000人（次），发放生活救助金、慰问金及物资300万元。2010—2014年，全县各级困难职工建档人数、实际帮扶对象和帮扶支出分别是2009年以前的10倍。劳模服务管理工作不断加强，完成了全县64名各级劳模基本情况普查工作，开展劳模慰问活动60人（次），组织劳模先进考察学习68人（次），向各级劳模发放慰问金、生活救助金和大病补助10万元。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>296</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>自治区组织部分老干部赴吐鲁番市考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/201705/0e3abb12ac804f08b89cc0e1f867fbf4.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['“我在吐鲁番工作了三十多年，这次回来几乎都不认识了。”5月6日，自治区政协原副主席玉素甫·艾沙激动地说，“现在农民都住上了新房子，村里的路都是柏油路，到处绿树成荫。我们看了以后很高兴。我们的国家现在如此繁荣富强、和谐稳定，主要是党领导的好，我坚信中国的发展会更好。”', '5月5日至7日，自治区党委组织21名退休老干部来到吐鲁番市考察学习。此次考察学习活动是自治区按照中组部统一部署，组织老干部开展“畅谈十八大以来变化、展望十九大胜利召开”和“建言十九大”主题活动的组成部分。', '老干部们先后考察了鄯善县的合盛硅业公司、楼兰酒业、辟展乡大东湖设施农业园，位于高昌区的吐鲁番新能源示范区、高昌区新疆旅游纺织品服装产业基地、高昌区葡萄镇的努尔丁书屋和木纳尔社区、高昌区亚尔镇交河民族团结教育基地。', '5月初的吐鲁番树绿花艳，俨然已是盛夏时节。老干部们带着感情、带着责任、带着思想，一路走、一路看、一路思考、一路谈论，大家都为吐鲁番市的经济社会发展取得的成绩兴奋不已。', '自治区人大常委会民族宗教外事华侨工作委员会原主任阿不都热合曼·热合木拜说，党的十八大以来，我区社会稳定，经济快速发展，各地都发生了很大变化。通过这次考察学习，更加深了我对新疆未来发展的信心。', '原新疆财经学院院长玉努斯·阿不利斯也有同样的感受。作为一名教育工作者，在整个考察中，玉努斯·阿不利斯看到的、听到的、感受最深的就是党和政府的教育惠民政策大得人心，极大地激发了各民族群众的感恩之情。“我亲眼看到了这些地方所发生的翻天覆地的变化，社会稳定、各族人民安居乐业，过着幸福美满的生活，这种画面令人鼓舞。”', '交河民族团结教育基地于2016年8月建成并投入运营。教育基地员工80%为亚尔镇亚尔果勒村村民。员工由维吾尔、汉、回多民族组成，是一个民族团结的大集体。“只有社会稳定，只有各民族团结得像一家人一样，新疆才能有大发展。”自治区招商发展局党组原书记胡良才说，现在必须坚定不移贯彻落实党中央治疆方略，贯彻自治区党委的决策部署，才能确保新疆社会稳定和长治久安。作为老同志，我们要不忘初心，时时刻刻维护党中央的权威，维护自治区党委的权威。', '自治区党委政法委原副书记吐尔逊·曼苏木说， 做为一名老干部，应该从政治上、思想上，特别是言行上跟自治区党委保持高度一致，要做到言行一致，尤其是在反对民族分裂、维护社会稳定、民族团结等重大问题上认识不含糊、态度不暧昧，行动不动摇。用我们的实际行动迎接党的十九大胜利召开。', '大家表示要坚定不移跟党走，始终保持一名共产党员的本色。紧紧围绕总目标，发挥老干部具有较高思想素质和丰富实践经验的优势，为维护新疆社会稳定和长治久安贡献一份力量。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>296</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>吐鲁番首次工业学校服务地域企业发展洽谈会召开</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/202303/7a2011b5f6d345deabf7c685067d8fb5.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2月28日，新疆轻工职业技术学院相关负责人为吐鲁番葡萄酒生产企业进行大学生实践教育基地揭牌。', '(文/图记者田吉斌)2月28日，由吐鲁番中小企业服务中心有限公司组织的首次“工业学校服务地域企业发展洽谈会”召开，助力中小微企业发展再提速。', '当天，来自新疆轻工职业技术学院食品与生物技术分院专家学者、吐鲁番经济开发区相关负责人先后前往吐鲁番亿茂酒庄有限公司、新疆楼兰情缘果业有限公司、新疆沙漠绿洲酒业有限公司等地进行考察调研，新疆轻工职业技术学院食品与生物技术分院分别与新疆楼兰情缘果业有限公司和新疆沙漠绿洲酒业有限公司签订了校企合作协议，并为两家企业大学生实训基地揭牌。', '2月28日，由吐鲁番中小企业服务中心有限公司组织校企相关专家学者、负责人在吐鲁番亿茂酒庄有限公司考察学习。', '新疆楼兰情缘有限公司总经理吕敬阳说：“此次签订产学研合作协议，将以实践教学基地和特色农产品精深加工为切入点，进一步构筑校企联营合作平台，为企业高质量发展增添了新动力。”', '通过交流，校企双方还对未来就共建研发平台，建立就业实习基地、人才定向培养等方面开展深层次合作达成共识，为接下来校企合作及产学研深度融合发展打下坚实基础。', '2月28日，由吐鲁番中小企业服务中心有限公司组织的相关专家学者、负责人在本地葡萄酒企业考察学习。', '新疆轻工职业技术学院食品与生物技术分院副院长张志强说：“校企合作是当前职业教育发展的必然趋势。今后，我们将加大与吐鲁番重点企业合作，培养更多的优秀人才，进一步推动产学研一体化深度融合，为吐鲁番经济和社会高质量发展提供强力的人才支撑。”', '作为吐鲁番市首个自治区级中小企业公共服务示范平台企业。近年来，吐鲁番中小企业服务中心有限公司多渠道多形式为当地中小微企业提供政策解读、融资对接等专业化服务，培育更多专精特新企业，全力助推中小企业高质量发展。', '“开展校企合作既是贯彻落实吐鲁番‘工业强市’战略的重要途径，也是提升吐鲁番市中小企业创新能力，推动高校创新成果惠及中小企业的重要举措。”吐鲁番中小企业服务中心有限公司总经理张磊表示，将进一步发挥重要桥梁纽带作用，及时了解校企双向需求，探索实施“校企双聘”制度，选聘一批专家教授担任中小企业技术导师，为企业提供“一对一”的技术咨询、指导等服务，进一步提升中小企业创新核心竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>296</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>湖南省援疆前方指挥部以园区为着力点推动经济高质量发展</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-08-07</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106289/202008/69209e6210c44279becb4498087c4166.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['吐鲁番融媒中心讯(通讯员 石子敬)今年以来，湖南省第九批援疆前方指挥部紧紧围绕市委中心工作，积极为市委、市政府研究起草《关于进一步加快园区高质量发展的若干意见》(以下简称《意见》)建言献策，充分借鉴湖南园区发展的成功经验，并结合吐鲁番园区发展的实际需要，旨在以园区为着力点推动全市经济高质量发展。', '《意见》内容包括推动园区高质量发展、科学统筹园区规划、稳步推进体制机制改革、强化重点要素保障、大力优化营商环境、实行年度绩效考核、切实加强组织保障七个方面，共20条符合当前推动吐鲁番经济高质量发展要求的各项措施。其中，在推进体制机制改革方面，园区党工委书记和管委会主任分别兼任区县相应职务，允许园区按1：1.5的比例设置园区雇员。在强化重点要素保障方面，每年设立不低于5000万元的园区发展专项资金；建立税收增量激励制度，每年园区税收增长超基数地方留存部分全额用于支持园区发展建设。在大力优化营商环境方面，采取“一枚印章管审批”“一支队伍管执法”“一站式服务”等措施。为确保意见贯彻落地，《意见》还要求成立由市委领导牵头负责的市加快园区发展工作领导小组，统筹研究涉及园区建设与发展全局性、方向性的重大事项。', '湖南援疆前方指挥部将按照市委、市政府的统筹部署，会同市直有关部门抓紧做好《意见》的解读和宣传贯彻工作，组织开展到先进园区现场考察学习活动，进一步推进全市园区体制机制改革，激活内生动力，更好发挥园区在经济建设中主战场、主力军、主阵地的作用，加快推动全市经济高质量发展步伐。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>叶友龙带领村民种韭菜致富</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106222/202203/c566df0840a64b10a94d5a6b35bed80b.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['“大家先把脚下的韭菜割出来，留出一片空地，一会车子要进来装菜……”“纸箱子准备好了没有?”3月17日下午，托克逊县夏镇喀格恰克村致富带头人叶友龙的韭菜棚内一派忙碌景象。记者看到，绿油油的韭菜铺满了大棚，30多名村民正在收割韭菜，转眼间韭菜就收割打包完毕。', '多年前，叶友龙在朋友的引荐下，开始种植韭菜。他不断去周边乡(镇)考察学习，慢慢地，他想到结合大棚和大田的优势，创新研究一种种植韭菜新模式，于是喀格恰克村的第一个连栋棚便出现了。', '说起连栋棚，叶友龙激动得滔滔不绝：“连栋棚最大的优势就是结合了大棚和大田优点，它具有机械化作业方便、采光好、土地利用率高的特点，再加上使用农家肥，种出的韭菜是绿色食品。韭菜品相好、口感好、韭菜味浓，消费者吃得放心。”', '近年来，喀格恰克村不断调整优化产业结构，发展特色种植，集中全力发展韭菜特色种植。叶友龙借机把韭菜产业越做越大。目前，他种植了16亩韭菜，仅头茬韭菜的收益就达十多万。“今年的天气不错，所以头茬韭菜价格很好，出地就是每公斤7.5元。”叶友龙说。', '近年来，喀格恰克村不断调整优化产业结构，发展特色种植，集中全力发展韭菜特色种植。叶友龙借机把韭菜产业越做越大。目前，他种植了', '叶友龙致富不忘父老乡亲，他带着村民一起利用冬闲时间发展种植业，与乡亲们共同致富。在叶友龙的大棚里，他一边装箱，一边给前来询价的村民细心地讲解割完头茬韭菜以后扣棚、施肥、田间管理等方面的工作，鼓励他们发展韭菜种植。', '如今，叶友龙在政策的支持和自己的努力下，带动了全村韭菜产业发展，成为了托克逊县颇有名气的韭菜种植致富带头人。', '“以后，我还会继续努力，要对得起村委会给我评的‘致富带头人’的荣誉称号。现在，党和国家的惠民政策又多又好，让我们致富更有信心，我们一定可以把小韭菜发展成为农民增收致富的大产业。”叶友龙信心满满地说。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>296</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>吐鲁番市工商联年度部门预算及三公经费信息公开报告</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106254/201704/60c142a973e244e9aebb2af27e5aad7f.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['根据《转发财政厅&lt;关于转发财政部&lt;地方预决算公开操作规程&gt;的通知&gt;的通知》（吐市财预〔2016〕110号）和《关于下达2017年部门预算批复及做好部门预算公开工作的通知》（吐市财预（2017）42号）有关规定要求和文件精神，现将吐鲁番市工商联2017年度部门预算公开如下：', 'l.参与国家事务和经济、社会重大决策的政治协商，发挥民主监督作用，做好工商界代表人士政治安排的推荐工作。', '2.负责宣传、贯彻党和国家的方针政策，加强和改进思想政治工作，对会员进行团结、帮助，引导、教育，提倡爱国、敬业、守法、提高会员素质，培养骨干队伍。', '3.代表并维护会员的合法权益，反映会员的意见、要求和建议，在会员与行署之间发挥桥梁作用，当好行署管理非公有制经济的助手。', '4.发挥民间商会作用，履行商会职责，为会员和社会提供市场、技术.商品等信息，为会员提供信息和科技、管理、法律、会计.审计、融资.咨询等服务。', '7.引导会员弘扬中华民族传统美德，先富帮后富，走共同富裕的道路，热心社会公益事业。', '8.组织会员举办和参加各种对外展销会、交易会；组织会员出国、出境考察访问，帮助会员开拓国内、国际市场。', '9.增进与台湾、香港、澳门地区和世界各国工商社团及工商经济界人士的联系和友谊，促进经济、技术和贸易的发展.协助引进资金、技术、人才。', 'l.办公室协助领导处理办公室的日常工作；负责重要文稿的起草、打印、报送及公文登记、阅办、归档收集工作；组织调查研究和参政议证；负责对非公企业和非公有制经济人士的宣传工作；负责本会的财务、固定资产、车辆的管理；负责党建等工作。', '2.综合业务科负责有关会员(企业)经济商务活动重要文稿的起草工作；负责基层组织建设和会员工作，做好对会员的服务和维权工作；负责与会员企业相关的经济联络服务工作；负责办理与会员企业、招商引资、经济联络相关的人大提案和政协议案的办理等工作.', '吐鲁番市工商业联合会(市总商会）相当于正县级，核定事业编制6名(管理5名，工勤岗位1名),其中：县级领导职数2名，科级领导职数2名。经费实行全额预算管理。', '基本支出1117.01千元，其中：工资福利支出874.16千元，商品和服务支出72.71千元，对个人和家庭补助支出70.14千元,项目支出100千元(主要开展以下工作1、组织非公经济人士到疆内外考察学习和培训。2、举办非公企业管理者和非公企业党组织负责人培训班。3、开展非公企业民族团结、去极端化宣传等活动。4、组织召开非公经济领导小组成员单位每季度工作会议（包括打印材料、调研和考察费用）。', '2.公务用车运行费27千元，主要用于日常公务、开展联乡驻村入户工作等公务用车的燃料费、修理费、保险费、过桥过路费等支出。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>296</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>吐鲁番市党政代表团赴湖南湘潭学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/202302/32e3b6aee4ac45549d785e25b9bcc893.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['(记者杜虎盛瑜马建山)2月20日，吐鲁番市委书记马学良率吐鲁番市党政代表团赴湖南省湘潭市学习考察，就深入学习贯彻习近平新时代中国特色社会主义思想，全面贯彻落实党的二十大精神，全面推进乡村振兴，推动文旅深度融合，扎实抓好基层党建等开展考察交流。湘潭市委书记刘志仁，湘潭市委副书记、市长胡贺波参加。', '代表团一行来到韶山市毛泽东广场，向毛泽东同志铜像敬献花篮，参观毛泽东同志纪念馆和故居，表达对伟人的深切缅怀和崇高敬意，接受红色教育，砥砺初心使命。在韶山村参观了党群服务中心，考察了疆品入湘、长冲美丽屋场、精品民宿发展等工作，详细了解了韶山村基层党建、乡村振兴、乡村治理、现代农业产业发展等情况。', '2月20日，吐鲁番市委书记马学良率吐鲁番市党政代表团赴湖南省湘潭市学习考察。这是吐鲁番市党政代表团在韶山村特产超市考察吐鲁番特产销售情况。吐鲁番日报融媒体中心记者杜虎摄', '在随后召开的湘潭市·吐鲁番市工作交流座谈会上，马学良代表吐鲁番市委、市政府对多年来湘潭市给予吐鲁番的大力支持和无私援助表示感谢。他说，此次湖南之行，是一次感恩之旅、学习之旅、合作之旅。多年来，湘潭市高度重视援疆工作，给予吐鲁番大力支持，特别是在教育、医疗卫生等方面，吐鲁番各族群众真切地感受到了湘潭的援助。', '马学良指出，今年，吐鲁番市坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的二十大精神，按照自治区党委工作要求，制定了“1535”工作思路，迈上了建设繁荣富裕、和美幸福的现代化吐鲁番的新征程。湘潭、吐鲁番两地都有良好的区位优势、悠久的历史文化、巨大的发展潜力。希望双方能够进一步开展更宽领域、更深层次、更高水平的交流合作，切实深化产业发展、文化旅游、科技创新、人才引进合作，最大化释放对口援疆工作效应，为双方经济社会高质量发展赋能添力。', '马学良指出，今年，吐鲁番市坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的二十大精神，按照自治区党委工作要求，制定了', '刘志仁代表湘潭市委、市政府和全市人民对吐鲁番市党政代表团来湘潭考察学习表示热烈欢迎。他说，湘潭市委、市政府一直高度重视援疆工作，与吐鲁番市委、高昌区委通力合作、密切配合，做了一系列工作。2023年是贯彻落实党的二十大精神的开局之年，也是湘潭市第九批援疆工作队收官之年和新一批援疆工作队扬帆起航之年。希望两地始终站在政治的高度、发展的高度、效率的高度深化合作、携手前进，在产业发展、文化教育、改善民生等方面取得更多实质性突破，全力以赴做好援疆工作，开创合作共赢新局面。', '刘志仁代表湘潭市委、市政府和全市人民对吐鲁番市党政代表团来湘潭考察学习表示热烈欢迎。他说，湘潭市委、市政府一直高度重视援疆工作，与吐鲁番市委、高昌区委通力合作、密切配合，做了一系列工作。', '座谈会上，吐鲁番市委常委、高昌区委书记单丽萍介绍了高昌区经济社会发展及湘潭市对口援疆工作情况。', '湖南省政府办公厅、省发展改革委相关负责同志，湘潭市领导刘扬、董巍、刘俊，吐鲁番市领导刘中杰、玉买尔江·买买提、汤红杰、王泓维等参加活动。', '湖南省政府办公厅、省发展改革委相关负责同志，湘潭市领导刘扬、董巍、刘俊，吐鲁番市领导刘中杰、玉买尔江']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>新疆省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>296</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>新疆省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>吐鲁番市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>吐鲁番榜样自治区诚实守信模范张贤春一诺千金的儿子娃娃</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-07-18</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.tlf.gov.cn//tlfs/c106219/202007/363b52e70a32494484ba43a66da755b6.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['“人无信不立、业无信不兴、国无信不强。”诚信，是中华民族的传统美德，也是社会主义核心价值观的重要内容。讲诚信不仅是一种品质，更是现代社会的行为准则。每个人都应争做诚信社会的践行者，将诚信铭记于心、实践于行。', '今年是吐鲁番市创建全国文明城市的决胜之年，能否在中央文明委的终期考评中取得好成绩，事关三年的成败。在迎考的关键时期，本版再次刊发部分“诚实守信模范”的事迹，在全市营造“人人讲诚信、事事讲诚信”的良好风尚，为创建全国文明城市助力添彩。', '2019年6月5日一早，高昌区恰特喀勒乡农民艾克拜尔·克依木将两吨哈密瓜卖给收购商后，便回家等待收购款进账。', '村里人问艾克拜尔：“做生意都是一手交钱、一手交货，你还没拿到钱就把货给别人，不怕收购商跑了吗?”', '艾克拜尔口中的“老张”，就是该乡新红旗设施蔬菜种植农民专业合作社(以下简称新红旗合作社)理事长张贤春。在这个乡，提起张贤春，农民们无不竖起大拇指。多年来，他诚实守信、一诺千金，团结带领大家共同致富，是农民敬佩、认可的“儿子娃娃”。', '张贤春出生于恰特喀勒村，在农村长大，从小养成了勤劳朴实、诚实守信的性格，对农民有着深厚的感情。', '很早，张贤春就靠经营葡萄干生意，走上了致富路。2009年3月，他积极响应政府大力发展设施农业的号召，组织13户农民成立了新红旗合作社，引领乡邻走上现代农业之路。', '刚开始，有些种植户在思想上有畏难情绪，也缺乏技术。张贤春请专家给种植哈密瓜的村民现场指导，讲解设施农业技术，还自费带村民到外地考察学习，提升他们的种植信心。', '2012年，恰特喀勒乡哈密瓜大丰收，合作社承诺按每公斤10元的价格收购。然而，当年哈密瓜滞销，收购价降到每公斤4元。', '为了让种植户拾起信心，张贤春想办法联系到广州、深圳的销售商，以每公斤10元的价格收购了30多吨哈密瓜，为村民挽回了不少损失。“合作社亏点钱事小，兑现我们的承诺，让村民满意事大。”张贤春说。', '从此，艾克拜尔坚定了种植信心。“张贤春是个‘儿子娃娃’，他说到做到，宁愿自己吃亏，也要帮我们挽回损失。这些年跟着他，我学到了不少种植技术，生活越来越好。”', '2013年，考虑到当地不少人擅长搞养殖，张贤春又领办了联达养殖合作社，带领当地59家养殖大户成立了养殖协会。为解决养殖资金问题，他以合作社的名义，从银行贷款1000万元，分给大家搞养殖。', '到了还款期限，因个别养殖户经营不善，无法还款，张贤春又拿出40万元积蓄帮助养殖户还款。', '“贷款还不了，不仅会影响合作社的信誉，还会给养殖协会成员造成不小的损失，甚至会被纳入诚信黑名单。”张贤春说。', '张贤春的真诚守信获得了大家的理解和支持，越来越多的村民愿意跟着他一起干。截至2018年底，新红旗合作社社员已经从最初的13户增加到226户。', '2014年，张贤春又组建了聚众果蔬联合社，进一步拓宽了乡亲们的收入渠道。他每年培训村民1200多人次，引导大家调整种植结构，生产优质农产品。在他的带领下，社员种植大棚每座可收入2.5万元。', '“我要把诚信经营的理念永远植根于自己的事业中，用诚信带动群众致富，用诚信赢得事业的成功。”一路走来，张贤春始终不忘初心，把诚信的种子播撒在乡邻的心中。', '诚信是人人都应具备的良好品格，也是这个社会必不可缺的优秀美德。在创建全国文明城市的进程中，我们每个人都要争做一诺千金的“儿子娃娃”，将诚信内化于心、外践于行，让“讲诚信、守信用”成为文明吐鲁番的闪亮名片。']</t>
         </is>
